--- a/Code/Results/Cases/Case_0_98/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_98/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9629353541690824</v>
+        <v>1.05548994593055</v>
       </c>
       <c r="D2">
-        <v>0.9766787260750627</v>
+        <v>1.061424838910845</v>
       </c>
       <c r="E2">
-        <v>0.9780578200502813</v>
+        <v>1.060929646222222</v>
       </c>
       <c r="F2">
-        <v>0.974350902833277</v>
+        <v>1.069241641411597</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034354123122836</v>
+        <v>1.027664988806262</v>
       </c>
       <c r="J2">
-        <v>0.9862841457900642</v>
+        <v>1.060496535907449</v>
       </c>
       <c r="K2">
-        <v>0.9884728172043621</v>
+        <v>1.064148935661988</v>
       </c>
       <c r="L2">
-        <v>0.9898315515346831</v>
+        <v>1.063655088705775</v>
       </c>
       <c r="M2">
-        <v>0.9861795259884095</v>
+        <v>1.071944673888349</v>
       </c>
       <c r="N2">
-        <v>0.9991844323202798</v>
+        <v>1.023883598764913</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9764060057308107</v>
+        <v>1.057481369175367</v>
       </c>
       <c r="D3">
-        <v>0.9892847907516679</v>
+        <v>1.063275134532518</v>
       </c>
       <c r="E3">
-        <v>0.9903860181317201</v>
+        <v>1.062738332709983</v>
       </c>
       <c r="F3">
-        <v>0.9890204330007931</v>
+        <v>1.071255413547409</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038315258051772</v>
+        <v>1.027887981298487</v>
       </c>
       <c r="J3">
-        <v>0.9975612059431193</v>
+        <v>1.062134628253618</v>
       </c>
       <c r="K3">
-        <v>1.000056635828474</v>
+        <v>1.065811242061347</v>
       </c>
       <c r="L3">
-        <v>1.00114340780098</v>
+        <v>1.065275791089603</v>
       </c>
       <c r="M3">
-        <v>0.9997957542113991</v>
+        <v>1.073771610744368</v>
       </c>
       <c r="N3">
-        <v>1.002933388201091</v>
+        <v>1.024427228538382</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9844983480257241</v>
+        <v>1.058758038831842</v>
       </c>
       <c r="D4">
-        <v>0.9968426432455859</v>
+        <v>1.064459948300748</v>
       </c>
       <c r="E4">
-        <v>0.9977774304250914</v>
+        <v>1.063896466363182</v>
       </c>
       <c r="F4">
-        <v>0.9977670465391981</v>
+        <v>1.072541087766212</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040611224913438</v>
+        <v>1.028022304815294</v>
       </c>
       <c r="J4">
-        <v>1.004307075328311</v>
+        <v>1.06318251664347</v>
       </c>
       <c r="K4">
-        <v>1.006979324747334</v>
+        <v>1.066874009047761</v>
       </c>
       <c r="L4">
-        <v>1.007902754127305</v>
+        <v>1.066311872155894</v>
       </c>
       <c r="M4">
-        <v>1.007892496261916</v>
+        <v>1.074936025470244</v>
       </c>
       <c r="N4">
-        <v>1.005176369988935</v>
+        <v>1.024774928114871</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9877711956227667</v>
+        <v>1.059291944954545</v>
       </c>
       <c r="D5">
-        <v>0.9998959887809944</v>
+        <v>1.064955107618312</v>
       </c>
       <c r="E5">
-        <v>1.000763564533533</v>
+        <v>1.06438046666693</v>
       </c>
       <c r="F5">
-        <v>1.001289949269237</v>
+        <v>1.073077480529279</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041520253525942</v>
+        <v>1.028076398096406</v>
       </c>
       <c r="J5">
-        <v>1.007028929643671</v>
+        <v>1.063620201019465</v>
       </c>
       <c r="K5">
-        <v>1.009771037568842</v>
+        <v>1.067317760689389</v>
       </c>
       <c r="L5">
-        <v>1.01062841364383</v>
+        <v>1.066744460236651</v>
       </c>
       <c r="M5">
-        <v>1.011148620585067</v>
+        <v>1.075421350637182</v>
       </c>
       <c r="N5">
-        <v>1.006081435404368</v>
+        <v>1.024920141427052</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9883136435363782</v>
+        <v>1.059381426926763</v>
       </c>
       <c r="D6">
-        <v>1.000401866378928</v>
+        <v>1.065038076112889</v>
       </c>
       <c r="E6">
-        <v>1.001258308118983</v>
+        <v>1.06446156484451</v>
       </c>
       <c r="F6">
-        <v>1.001873014943507</v>
+        <v>1.073167304057407</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041669777652387</v>
+        <v>1.028085341517596</v>
       </c>
       <c r="J6">
-        <v>1.007479687155023</v>
+        <v>1.063693524307367</v>
       </c>
       <c r="K6">
-        <v>1.010233279425079</v>
+        <v>1.067392091727687</v>
       </c>
       <c r="L6">
-        <v>1.011079708198469</v>
+        <v>1.066816920073142</v>
       </c>
       <c r="M6">
-        <v>1.011687241316882</v>
+        <v>1.075502594325947</v>
       </c>
       <c r="N6">
-        <v>1.006231322847129</v>
+        <v>1.024944467496168</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9845425644669944</v>
+        <v>1.058765183875222</v>
       </c>
       <c r="D7">
-        <v>0.9968839071787757</v>
+        <v>1.064466576123321</v>
       </c>
       <c r="E7">
-        <v>0.9978177859304723</v>
+        <v>1.063902944854679</v>
       </c>
       <c r="F7">
-        <v>0.9978146978841345</v>
+        <v>1.072548271130285</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040623583403738</v>
+        <v>1.028023036936786</v>
       </c>
       <c r="J7">
-        <v>1.004343872938746</v>
+        <v>1.063188376140011</v>
       </c>
       <c r="K7">
-        <v>1.007017072595991</v>
+        <v>1.066879950351214</v>
       </c>
       <c r="L7">
-        <v>1.007939609556441</v>
+        <v>1.06631766407569</v>
       </c>
       <c r="M7">
-        <v>1.007936558970417</v>
+        <v>1.074942526824398</v>
       </c>
       <c r="N7">
-        <v>1.005188605668459</v>
+        <v>1.024776872214848</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9676310013656907</v>
+        <v>1.056165452285753</v>
       </c>
       <c r="D8">
-        <v>0.9810764922196328</v>
+        <v>1.062052760461774</v>
       </c>
       <c r="E8">
-        <v>0.9823586119605963</v>
+        <v>1.061543454649135</v>
       </c>
       <c r="F8">
-        <v>0.9794797277891881</v>
+        <v>1.069925835211832</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035753501663173</v>
+        <v>1.027742420294643</v>
       </c>
       <c r="J8">
-        <v>0.9902217205415308</v>
+        <v>1.061052660627605</v>
       </c>
       <c r="K8">
-        <v>0.9925190460500309</v>
+        <v>1.064713407932098</v>
       </c>
       <c r="L8">
-        <v>0.993782971205136</v>
+        <v>1.064205451515515</v>
       </c>
       <c r="M8">
-        <v>0.9909450256119756</v>
+        <v>1.072565799603614</v>
       </c>
       <c r="N8">
-        <v>1.000493336251799</v>
+        <v>1.024068171122109</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9317228279556394</v>
+        <v>1.051490962055854</v>
       </c>
       <c r="D9">
-        <v>0.9473523217171477</v>
+        <v>1.057701855708943</v>
       </c>
       <c r="E9">
-        <v>0.9493791027511063</v>
+        <v>1.057290194516348</v>
       </c>
       <c r="F9">
-        <v>0.939853785217607</v>
+        <v>1.065169176649201</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024609923130563</v>
+        <v>1.02717110012795</v>
       </c>
       <c r="J9">
-        <v>0.9599405197442852</v>
+        <v>1.057194911940072</v>
       </c>
       <c r="K9">
-        <v>0.961361517784159</v>
+        <v>1.06079522733845</v>
       </c>
       <c r="L9">
-        <v>0.9633505783901816</v>
+        <v>1.060384850022335</v>
       </c>
       <c r="M9">
-        <v>0.9540043868333032</v>
+        <v>1.068239447463576</v>
       </c>
       <c r="N9">
-        <v>0.9904314796968471</v>
+        <v>1.022787572975079</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9004266409018341</v>
+        <v>1.048308631709967</v>
       </c>
       <c r="D10">
-        <v>0.9177749866099326</v>
+        <v>1.054732665886663</v>
       </c>
       <c r="E10">
-        <v>0.92045638114697</v>
+        <v>1.054387460938941</v>
       </c>
       <c r="F10">
-        <v>0.9045456982618149</v>
+        <v>1.061903155163125</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01417602974454</v>
+        <v>1.026737782867706</v>
       </c>
       <c r="J10">
-        <v>0.9332351435445317</v>
+        <v>1.054556822031751</v>
       </c>
       <c r="K10">
-        <v>0.933806482561561</v>
+        <v>1.058112643404826</v>
       </c>
       <c r="L10">
-        <v>0.9364274234282124</v>
+        <v>1.057768624512969</v>
       </c>
       <c r="M10">
-        <v>0.9208824881925427</v>
+        <v>1.06525868794841</v>
       </c>
       <c r="N10">
-        <v>0.9815679543917831</v>
+        <v>1.021911536755081</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8833722964838224</v>
+        <v>1.046914243763213</v>
       </c>
       <c r="D11">
-        <v>0.9015739192774338</v>
+        <v>1.053429983208215</v>
       </c>
       <c r="E11">
-        <v>0.9046140247798196</v>
+        <v>1.053113893776385</v>
       </c>
       <c r="F11">
-        <v>0.8849766173474357</v>
+        <v>1.060465529960267</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00823868412869</v>
+        <v>1.026537518923452</v>
       </c>
       <c r="J11">
-        <v>0.9185537307832489</v>
+        <v>1.053398117789737</v>
       </c>
       <c r="K11">
-        <v>0.9186257537130482</v>
+        <v>1.056933651240332</v>
       </c>
       <c r="L11">
-        <v>0.921590721027848</v>
+        <v>1.05661869156694</v>
       </c>
       <c r="M11">
-        <v>0.9024510105391463</v>
+        <v>1.063944243894346</v>
       </c>
       <c r="N11">
-        <v>0.9767004078560838</v>
+        <v>1.021526691607142</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8761251185280534</v>
+        <v>1.046393772277612</v>
       </c>
       <c r="D12">
-        <v>0.8946687684286311</v>
+        <v>1.052943489233188</v>
       </c>
       <c r="E12">
-        <v>0.8978616809916879</v>
+        <v>1.052638267099776</v>
       </c>
       <c r="F12">
-        <v>0.8765834532607878</v>
+        <v>1.059927933704339</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.005662424706564</v>
+        <v>1.026461215333608</v>
       </c>
       <c r="J12">
-        <v>0.9122850719742986</v>
+        <v>1.052965200467847</v>
       </c>
       <c r="K12">
-        <v>0.9121363821160664</v>
+        <v>1.056493042371218</v>
       </c>
       <c r="L12">
-        <v>0.9152474234778764</v>
+        <v>1.056188926895142</v>
       </c>
       <c r="M12">
-        <v>0.8945301431779681</v>
+        <v>1.063452355230138</v>
       </c>
       <c r="N12">
-        <v>0.9746233459949232</v>
+        <v>1.021382894398438</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8777329524739844</v>
+        <v>1.04650553094353</v>
       </c>
       <c r="D13">
-        <v>0.896201856928985</v>
+        <v>1.053047963461358</v>
       </c>
       <c r="E13">
-        <v>0.8993608504307221</v>
+        <v>1.052740407855249</v>
       </c>
       <c r="F13">
-        <v>0.8784497175342708</v>
+        <v>1.060043414083565</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.006236762510158</v>
+        <v>1.026477669754926</v>
       </c>
       <c r="J13">
-        <v>0.9136774230143179</v>
+        <v>1.053058177865684</v>
       </c>
       <c r="K13">
-        <v>0.9135781611329948</v>
+        <v>1.056587676715177</v>
       </c>
       <c r="L13">
-        <v>0.9166568025173589</v>
+        <v>1.056281232822316</v>
       </c>
       <c r="M13">
-        <v>0.8962921981286871</v>
+        <v>1.063558033260848</v>
       </c>
       <c r="N13">
-        <v>0.975084619296172</v>
+        <v>1.021413778117695</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8827958762463047</v>
+        <v>1.046871273513582</v>
       </c>
       <c r="D14">
-        <v>0.901025176560708</v>
+        <v>1.053389823290499</v>
       </c>
       <c r="E14">
-        <v>0.9040774282027226</v>
+        <v>1.053074631073138</v>
       </c>
       <c r="F14">
-        <v>0.8843108026310416</v>
+        <v>1.060421165966752</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.008034948374528</v>
+        <v>1.02653125085515</v>
       </c>
       <c r="J14">
-        <v>0.9180558136196649</v>
+        <v>1.053362384533514</v>
       </c>
       <c r="K14">
-        <v>0.9181104750285707</v>
+        <v>1.056897285388112</v>
       </c>
       <c r="L14">
-        <v>0.9210870637051467</v>
+        <v>1.056583221064873</v>
       </c>
       <c r="M14">
-        <v>0.9018230036324895</v>
+        <v>1.06390365904992</v>
       </c>
       <c r="N14">
-        <v>0.9765353986056095</v>
+        <v>1.021514822714324</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8857749531946836</v>
+        <v>1.047096281783841</v>
       </c>
       <c r="D15">
-        <v>0.903860354724644</v>
+        <v>1.053600105295297</v>
       </c>
       <c r="E15">
-        <v>0.9068498470855855</v>
+        <v>1.053280214911967</v>
       </c>
       <c r="F15">
-        <v>0.8877486979619059</v>
+        <v>1.060653432104353</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.009085736256227</v>
+        <v>1.026564009392258</v>
       </c>
       <c r="J15">
-        <v>0.9206279379543364</v>
+        <v>1.053549480143407</v>
       </c>
       <c r="K15">
-        <v>0.9207719757538753</v>
+        <v>1.05708768865025</v>
       </c>
       <c r="L15">
-        <v>0.9236884972946496</v>
+        <v>1.056768935837562</v>
       </c>
       <c r="M15">
-        <v>0.9050650480273812</v>
+        <v>1.064116125072206</v>
       </c>
       <c r="N15">
-        <v>0.9773878508834181</v>
+        <v>1.021576966568677</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9014604686782235</v>
+        <v>1.048400821075373</v>
       </c>
       <c r="D16">
-        <v>0.9187550607578662</v>
+        <v>1.054818756911619</v>
       </c>
       <c r="E16">
-        <v>0.9214147530169856</v>
+        <v>1.054471626942195</v>
       </c>
       <c r="F16">
-        <v>0.9057241654505193</v>
+        <v>1.061998065496052</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014530336533145</v>
+        <v>1.026750805984388</v>
       </c>
       <c r="J16">
-        <v>0.9341220960691506</v>
+        <v>1.05463337095659</v>
       </c>
       <c r="K16">
-        <v>0.9347228423932293</v>
+        <v>1.058190517060474</v>
       </c>
       <c r="L16">
-        <v>0.937322918814277</v>
+        <v>1.057844576581393</v>
       </c>
       <c r="M16">
-        <v>0.9219908056710853</v>
+        <v>1.065345416312222</v>
       </c>
       <c r="N16">
-        <v>0.9818621463133347</v>
+        <v>1.021936959770857</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9101938707633246</v>
+        <v>1.049214682077722</v>
       </c>
       <c r="D17">
-        <v>0.927025744141312</v>
+        <v>1.055578587469832</v>
       </c>
       <c r="E17">
-        <v>0.9295023093400789</v>
+        <v>1.055214462761095</v>
       </c>
       <c r="F17">
-        <v>0.9156454610982991</v>
+        <v>1.062835193817646</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017497623419338</v>
+        <v>1.026864583282488</v>
       </c>
       <c r="J17">
-        <v>0.9416014584807219</v>
+        <v>1.055308836405776</v>
       </c>
       <c r="K17">
-        <v>0.9424468743380083</v>
+        <v>1.058877586505081</v>
       </c>
       <c r="L17">
-        <v>0.9448706633687716</v>
+        <v>1.058514680055693</v>
       </c>
       <c r="M17">
-        <v>0.9313139914789834</v>
+        <v>1.066110105247074</v>
       </c>
       <c r="N17">
-        <v>0.984343507113677</v>
+        <v>1.022161283503912</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9149842136268419</v>
+        <v>1.049687814024209</v>
       </c>
       <c r="D18">
-        <v>0.9315559434931086</v>
+        <v>1.056020147691605</v>
       </c>
       <c r="E18">
-        <v>0.9339322222136492</v>
+        <v>1.05564614289431</v>
       </c>
       <c r="F18">
-        <v>0.9210621216277703</v>
+        <v>1.063321222882128</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.019105440259914</v>
+        <v>1.026929729906088</v>
       </c>
       <c r="J18">
-        <v>0.9456940203570197</v>
+        <v>1.055701246392921</v>
       </c>
       <c r="K18">
-        <v>0.946670847290857</v>
+        <v>1.059276666482247</v>
       </c>
       <c r="L18">
-        <v>0.9489979211961749</v>
+        <v>1.058903895386263</v>
       </c>
       <c r="M18">
-        <v>0.936398343112924</v>
+        <v>1.066553848671739</v>
       </c>
       <c r="N18">
-        <v>0.9857016556174488</v>
+        <v>1.022291596950322</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9165724381446713</v>
+        <v>1.049848873886686</v>
       </c>
       <c r="D19">
-        <v>0.9330569583637486</v>
+        <v>1.056170432732814</v>
       </c>
       <c r="E19">
-        <v>0.9354000130036063</v>
+        <v>1.055793064575306</v>
       </c>
       <c r="F19">
-        <v>0.9228541301503342</v>
+        <v>1.063486566336034</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01963537482033</v>
+        <v>1.026951737207495</v>
       </c>
       <c r="J19">
-        <v>0.9470493672674368</v>
+        <v>1.055834782249306</v>
       </c>
       <c r="K19">
-        <v>0.94806933483686</v>
+        <v>1.059412460003218</v>
       </c>
       <c r="L19">
-        <v>0.9503643406438143</v>
+        <v>1.059036330588156</v>
       </c>
       <c r="M19">
-        <v>0.9380795018061063</v>
+        <v>1.066704768115439</v>
       </c>
       <c r="N19">
-        <v>0.9861514973893767</v>
+        <v>1.022335941026589</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9092899043422569</v>
+        <v>1.049127526336431</v>
       </c>
       <c r="D20">
-        <v>0.926170373374497</v>
+        <v>1.055497234531145</v>
       </c>
       <c r="E20">
-        <v>0.9286658761182812</v>
+        <v>1.055134929808812</v>
       </c>
       <c r="F20">
-        <v>0.9146213202702248</v>
+        <v>1.062745611552766</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017192638538081</v>
+        <v>1.026852502141947</v>
       </c>
       <c r="J20">
-        <v>0.9408283849245077</v>
+        <v>1.05523652895772</v>
       </c>
       <c r="K20">
-        <v>0.9416487831802648</v>
+        <v>1.058804044254156</v>
       </c>
       <c r="L20">
-        <v>0.9440908215217063</v>
+        <v>1.058442954843661</v>
       </c>
       <c r="M20">
-        <v>0.9303522197718476</v>
+        <v>1.066028298427547</v>
       </c>
       <c r="N20">
-        <v>0.9840869874672038</v>
+        <v>1.022137270733933</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8813357448604592</v>
+        <v>1.046763641938444</v>
       </c>
       <c r="D21">
-        <v>0.8996347950490164</v>
+        <v>1.053289226941841</v>
       </c>
       <c r="E21">
-        <v>0.9027178201821098</v>
+        <v>1.052976282054661</v>
       </c>
       <c r="F21">
-        <v>0.8826228858443247</v>
+        <v>1.06031002744381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.007517961901293</v>
+        <v>1.026515525619684</v>
       </c>
       <c r="J21">
-        <v>0.9167940228430304</v>
+        <v>1.053272873393122</v>
       </c>
       <c r="K21">
-        <v>0.916804558017849</v>
+        <v>1.056806187808599</v>
       </c>
       <c r="L21">
-        <v>0.9198105825516106</v>
+        <v>1.0564943661119</v>
       </c>
       <c r="M21">
-        <v>0.9002306704057441</v>
+        <v>1.063801982139431</v>
       </c>
       <c r="N21">
-        <v>0.9761172645957958</v>
+        <v>1.021485091188423</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8576623878982005</v>
+        <v>1.045262679392997</v>
       </c>
       <c r="D22">
-        <v>0.8770135236460448</v>
+        <v>1.051885774325423</v>
       </c>
       <c r="E22">
-        <v>0.8805965696499276</v>
+        <v>1.051604168451994</v>
       </c>
       <c r="F22">
-        <v>0.8549703214007366</v>
+        <v>1.058757818298359</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9989499370405273</v>
+        <v>1.026292555932877</v>
       </c>
       <c r="J22">
-        <v>0.8962267227172213</v>
+        <v>1.052023616415002</v>
       </c>
       <c r="K22">
-        <v>0.8954902948203219</v>
+        <v>1.055534525300513</v>
       </c>
       <c r="L22">
-        <v>0.8989729993294449</v>
+        <v>1.055253971979251</v>
       </c>
       <c r="M22">
-        <v>0.8740899140576209</v>
+        <v>1.062381075742562</v>
       </c>
       <c r="N22">
-        <v>0.9693063681217442</v>
+        <v>1.021070119871744</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8711253708472683</v>
+        <v>1.046059784066538</v>
       </c>
       <c r="D23">
-        <v>0.8898971388748915</v>
+        <v>1.052631233451916</v>
       </c>
       <c r="E23">
-        <v>0.8931955882446186</v>
+        <v>1.052332984795865</v>
       </c>
       <c r="F23">
-        <v>0.870764370024147</v>
+        <v>1.059582678842084</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.003866199524407</v>
+        <v>1.026411814944775</v>
       </c>
       <c r="J23">
-        <v>0.9079493673088295</v>
+        <v>1.052687278536646</v>
       </c>
       <c r="K23">
-        <v>0.9076452430435122</v>
+        <v>1.05621015129679</v>
       </c>
       <c r="L23">
-        <v>0.9108570054456262</v>
+        <v>1.055912993877556</v>
       </c>
       <c r="M23">
-        <v>0.889033014902646</v>
+        <v>1.063136354799227</v>
       </c>
       <c r="N23">
-        <v>0.9731872259014717</v>
+        <v>1.021290577270125</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9096992850983265</v>
+        <v>1.049166913141186</v>
       </c>
       <c r="D24">
-        <v>0.9265577662247996</v>
+        <v>1.055533999474427</v>
       </c>
       <c r="E24">
-        <v>0.929044692188555</v>
+        <v>1.055170872277755</v>
       </c>
       <c r="F24">
-        <v>0.9150852032143583</v>
+        <v>1.062786096881938</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017330819401523</v>
+        <v>1.026857964851273</v>
       </c>
       <c r="J24">
-        <v>0.9411785189524259</v>
+        <v>1.055269206452606</v>
       </c>
       <c r="K24">
-        <v>0.942010255663583</v>
+        <v>1.058837280007313</v>
       </c>
       <c r="L24">
-        <v>0.944444029469944</v>
+        <v>1.05847536945846</v>
       </c>
       <c r="M24">
-        <v>0.9307878707915107</v>
+        <v>1.066065270469714</v>
       </c>
       <c r="N24">
-        <v>0.9842031669757193</v>
+        <v>1.022148122710162</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9419667233703148</v>
+        <v>1.052710820976279</v>
       </c>
       <c r="D25">
-        <v>0.956995286448529</v>
+        <v>1.058838524072846</v>
       </c>
       <c r="E25">
-        <v>0.958808911061062</v>
+        <v>1.05840138514778</v>
       </c>
       <c r="F25">
-        <v>0.9512529795743171</v>
+        <v>1.066415329671975</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02788698621669</v>
+        <v>1.027327981266478</v>
       </c>
       <c r="J25">
-        <v>0.9686184329493696</v>
+        <v>1.058203695290075</v>
       </c>
       <c r="K25">
-        <v>0.9703000182795969</v>
+        <v>1.061820367550788</v>
       </c>
       <c r="L25">
-        <v>0.9720821958376689</v>
+        <v>1.061384538619968</v>
       </c>
       <c r="M25">
-        <v>0.9646583047738293</v>
+        <v>1.069374653135731</v>
       </c>
       <c r="N25">
-        <v>0.9933139254294744</v>
+        <v>1.023122497920252</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_98/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_98/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05548994593055</v>
+        <v>0.9629353541690829</v>
       </c>
       <c r="D2">
-        <v>1.061424838910845</v>
+        <v>0.976678726075063</v>
       </c>
       <c r="E2">
-        <v>1.060929646222222</v>
+        <v>0.9780578200502816</v>
       </c>
       <c r="F2">
-        <v>1.069241641411597</v>
+        <v>0.9743509028332773</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027664988806262</v>
+        <v>1.034354123122837</v>
       </c>
       <c r="J2">
-        <v>1.060496535907449</v>
+        <v>0.9862841457900643</v>
       </c>
       <c r="K2">
-        <v>1.064148935661988</v>
+        <v>0.9884728172043623</v>
       </c>
       <c r="L2">
-        <v>1.063655088705775</v>
+        <v>0.9898315515346834</v>
       </c>
       <c r="M2">
-        <v>1.071944673888349</v>
+        <v>0.9861795259884099</v>
       </c>
       <c r="N2">
-        <v>1.023883598764913</v>
+        <v>0.99918443232028</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.057481369175367</v>
+        <v>0.9764060057308104</v>
       </c>
       <c r="D3">
-        <v>1.063275134532518</v>
+        <v>0.9892847907516674</v>
       </c>
       <c r="E3">
-        <v>1.062738332709983</v>
+        <v>0.9903860181317194</v>
       </c>
       <c r="F3">
-        <v>1.071255413547409</v>
+        <v>0.9890204330007925</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027887981298487</v>
+        <v>1.038315258051772</v>
       </c>
       <c r="J3">
-        <v>1.062134628253618</v>
+        <v>0.9975612059431188</v>
       </c>
       <c r="K3">
-        <v>1.065811242061347</v>
+        <v>1.000056635828474</v>
       </c>
       <c r="L3">
-        <v>1.065275791089603</v>
+        <v>1.00114340780098</v>
       </c>
       <c r="M3">
-        <v>1.073771610744368</v>
+        <v>0.9997957542113984</v>
       </c>
       <c r="N3">
-        <v>1.024427228538382</v>
+        <v>1.00293338820109</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.058758038831842</v>
+        <v>0.9844983480257254</v>
       </c>
       <c r="D4">
-        <v>1.064459948300748</v>
+        <v>0.9968426432455875</v>
       </c>
       <c r="E4">
-        <v>1.063896466363182</v>
+        <v>0.9977774304250925</v>
       </c>
       <c r="F4">
-        <v>1.072541087766212</v>
+        <v>0.9977670465391998</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028022304815294</v>
+        <v>1.040611224913438</v>
       </c>
       <c r="J4">
-        <v>1.06318251664347</v>
+        <v>1.004307075328312</v>
       </c>
       <c r="K4">
-        <v>1.066874009047761</v>
+        <v>1.006979324747336</v>
       </c>
       <c r="L4">
-        <v>1.066311872155894</v>
+        <v>1.007902754127306</v>
       </c>
       <c r="M4">
-        <v>1.074936025470244</v>
+        <v>1.007892496261917</v>
       </c>
       <c r="N4">
-        <v>1.024774928114871</v>
+        <v>1.005176369988935</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059291944954545</v>
+        <v>0.9877711956227673</v>
       </c>
       <c r="D5">
-        <v>1.064955107618312</v>
+        <v>0.9998959887809946</v>
       </c>
       <c r="E5">
-        <v>1.06438046666693</v>
+        <v>1.000763564533533</v>
       </c>
       <c r="F5">
-        <v>1.073077480529279</v>
+        <v>1.001289949269238</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028076398096406</v>
+        <v>1.041520253525943</v>
       </c>
       <c r="J5">
-        <v>1.063620201019465</v>
+        <v>1.007028929643671</v>
       </c>
       <c r="K5">
-        <v>1.067317760689389</v>
+        <v>1.009771037568843</v>
       </c>
       <c r="L5">
-        <v>1.066744460236651</v>
+        <v>1.01062841364383</v>
       </c>
       <c r="M5">
-        <v>1.075421350637182</v>
+        <v>1.011148620585067</v>
       </c>
       <c r="N5">
-        <v>1.024920141427052</v>
+        <v>1.006081435404368</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059381426926763</v>
+        <v>0.9883136435363787</v>
       </c>
       <c r="D6">
-        <v>1.065038076112889</v>
+        <v>1.000401866378928</v>
       </c>
       <c r="E6">
-        <v>1.06446156484451</v>
+        <v>1.001258308118984</v>
       </c>
       <c r="F6">
-        <v>1.073167304057407</v>
+        <v>1.001873014943508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028085341517596</v>
+        <v>1.041669777652387</v>
       </c>
       <c r="J6">
-        <v>1.063693524307367</v>
+        <v>1.007479687155023</v>
       </c>
       <c r="K6">
-        <v>1.067392091727687</v>
+        <v>1.01023327942508</v>
       </c>
       <c r="L6">
-        <v>1.066816920073142</v>
+        <v>1.01107970819847</v>
       </c>
       <c r="M6">
-        <v>1.075502594325947</v>
+        <v>1.011687241316883</v>
       </c>
       <c r="N6">
-        <v>1.024944467496168</v>
+        <v>1.00623132284713</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058765183875222</v>
+        <v>0.9845425644669941</v>
       </c>
       <c r="D7">
-        <v>1.064466576123321</v>
+        <v>0.9968839071787753</v>
       </c>
       <c r="E7">
-        <v>1.063902944854679</v>
+        <v>0.9978177859304721</v>
       </c>
       <c r="F7">
-        <v>1.072548271130285</v>
+        <v>0.9978146978841342</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028023036936786</v>
+        <v>1.040623583403739</v>
       </c>
       <c r="J7">
-        <v>1.063188376140011</v>
+        <v>1.004343872938746</v>
       </c>
       <c r="K7">
-        <v>1.066879950351214</v>
+        <v>1.007017072595991</v>
       </c>
       <c r="L7">
-        <v>1.06631766407569</v>
+        <v>1.007939609556441</v>
       </c>
       <c r="M7">
-        <v>1.074942526824398</v>
+        <v>1.007936558970417</v>
       </c>
       <c r="N7">
-        <v>1.024776872214848</v>
+        <v>1.005188605668459</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.056165452285753</v>
+        <v>0.9676310013656902</v>
       </c>
       <c r="D8">
-        <v>1.062052760461774</v>
+        <v>0.9810764922196323</v>
       </c>
       <c r="E8">
-        <v>1.061543454649135</v>
+        <v>0.9823586119605957</v>
       </c>
       <c r="F8">
-        <v>1.069925835211832</v>
+        <v>0.9794797277891875</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027742420294643</v>
+        <v>1.035753501663173</v>
       </c>
       <c r="J8">
-        <v>1.061052660627605</v>
+        <v>0.9902217205415305</v>
       </c>
       <c r="K8">
-        <v>1.064713407932098</v>
+        <v>0.9925190460500305</v>
       </c>
       <c r="L8">
-        <v>1.064205451515515</v>
+        <v>0.9937829712051354</v>
       </c>
       <c r="M8">
-        <v>1.072565799603614</v>
+        <v>0.9909450256119752</v>
       </c>
       <c r="N8">
-        <v>1.024068171122109</v>
+        <v>1.000493336251799</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051490962055854</v>
+        <v>0.9317228279556393</v>
       </c>
       <c r="D9">
-        <v>1.057701855708943</v>
+        <v>0.9473523217171476</v>
       </c>
       <c r="E9">
-        <v>1.057290194516348</v>
+        <v>0.9493791027511062</v>
       </c>
       <c r="F9">
-        <v>1.065169176649201</v>
+        <v>0.9398537852176069</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02717110012795</v>
+        <v>1.024609923130563</v>
       </c>
       <c r="J9">
-        <v>1.057194911940072</v>
+        <v>0.9599405197442854</v>
       </c>
       <c r="K9">
-        <v>1.06079522733845</v>
+        <v>0.9613615177841589</v>
       </c>
       <c r="L9">
-        <v>1.060384850022335</v>
+        <v>0.9633505783901816</v>
       </c>
       <c r="M9">
-        <v>1.068239447463576</v>
+        <v>0.9540043868333031</v>
       </c>
       <c r="N9">
-        <v>1.022787572975079</v>
+        <v>0.9904314796968472</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048308631709967</v>
+        <v>0.9004266409018348</v>
       </c>
       <c r="D10">
-        <v>1.054732665886663</v>
+        <v>0.9177749866099333</v>
       </c>
       <c r="E10">
-        <v>1.054387460938941</v>
+        <v>0.9204563811469706</v>
       </c>
       <c r="F10">
-        <v>1.061903155163125</v>
+        <v>0.9045456982618151</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026737782867706</v>
+        <v>1.01417602974454</v>
       </c>
       <c r="J10">
-        <v>1.054556822031751</v>
+        <v>0.9332351435445324</v>
       </c>
       <c r="K10">
-        <v>1.058112643404826</v>
+        <v>0.9338064825615615</v>
       </c>
       <c r="L10">
-        <v>1.057768624512969</v>
+        <v>0.9364274234282128</v>
       </c>
       <c r="M10">
-        <v>1.06525868794841</v>
+        <v>0.9208824881925434</v>
       </c>
       <c r="N10">
-        <v>1.021911536755081</v>
+        <v>0.9815679543917833</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046914243763213</v>
+        <v>0.8833722964838198</v>
       </c>
       <c r="D11">
-        <v>1.053429983208215</v>
+        <v>0.9015739192774309</v>
       </c>
       <c r="E11">
-        <v>1.053113893776385</v>
+        <v>0.9046140247798169</v>
       </c>
       <c r="F11">
-        <v>1.060465529960267</v>
+        <v>0.8849766173474332</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026537518923452</v>
+        <v>1.00823868412869</v>
       </c>
       <c r="J11">
-        <v>1.053398117789737</v>
+        <v>0.9185537307832463</v>
       </c>
       <c r="K11">
-        <v>1.056933651240332</v>
+        <v>0.9186257537130456</v>
       </c>
       <c r="L11">
-        <v>1.05661869156694</v>
+        <v>0.9215907210278454</v>
       </c>
       <c r="M11">
-        <v>1.063944243894346</v>
+        <v>0.9024510105391436</v>
       </c>
       <c r="N11">
-        <v>1.021526691607142</v>
+        <v>0.976700407856083</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046393772277612</v>
+        <v>0.8761251185280561</v>
       </c>
       <c r="D12">
-        <v>1.052943489233188</v>
+        <v>0.8946687684286335</v>
       </c>
       <c r="E12">
-        <v>1.052638267099776</v>
+        <v>0.8978616809916899</v>
       </c>
       <c r="F12">
-        <v>1.059927933704339</v>
+        <v>0.8765834532607903</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026461215333608</v>
+        <v>1.005662424706564</v>
       </c>
       <c r="J12">
-        <v>1.052965200467847</v>
+        <v>0.9122850719743012</v>
       </c>
       <c r="K12">
-        <v>1.056493042371218</v>
+        <v>0.912136382116069</v>
       </c>
       <c r="L12">
-        <v>1.056188926895142</v>
+        <v>0.9152474234778787</v>
       </c>
       <c r="M12">
-        <v>1.063452355230138</v>
+        <v>0.8945301431779706</v>
       </c>
       <c r="N12">
-        <v>1.021382894398438</v>
+        <v>0.9746233459949238</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04650553094353</v>
+        <v>0.8777329524739825</v>
       </c>
       <c r="D13">
-        <v>1.053047963461358</v>
+        <v>0.8962018569289832</v>
       </c>
       <c r="E13">
-        <v>1.052740407855249</v>
+        <v>0.8993608504307201</v>
       </c>
       <c r="F13">
-        <v>1.060043414083565</v>
+        <v>0.8784497175342689</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026477669754926</v>
+        <v>1.006236762510158</v>
       </c>
       <c r="J13">
-        <v>1.053058177865684</v>
+        <v>0.913677423014316</v>
       </c>
       <c r="K13">
-        <v>1.056587676715177</v>
+        <v>0.9135781611329932</v>
       </c>
       <c r="L13">
-        <v>1.056281232822316</v>
+        <v>0.916656802517357</v>
       </c>
       <c r="M13">
-        <v>1.063558033260848</v>
+        <v>0.8962921981286852</v>
       </c>
       <c r="N13">
-        <v>1.021413778117695</v>
+        <v>0.9750846192961714</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046871273513582</v>
+        <v>0.882795876246304</v>
       </c>
       <c r="D14">
-        <v>1.053389823290499</v>
+        <v>0.9010251765607071</v>
       </c>
       <c r="E14">
-        <v>1.053074631073138</v>
+        <v>0.904077428202722</v>
       </c>
       <c r="F14">
-        <v>1.060421165966752</v>
+        <v>0.8843108026310408</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02653125085515</v>
+        <v>1.008034948374527</v>
       </c>
       <c r="J14">
-        <v>1.053362384533514</v>
+        <v>0.9180558136196644</v>
       </c>
       <c r="K14">
-        <v>1.056897285388112</v>
+        <v>0.9181104750285697</v>
       </c>
       <c r="L14">
-        <v>1.056583221064873</v>
+        <v>0.9210870637051463</v>
       </c>
       <c r="M14">
-        <v>1.06390365904992</v>
+        <v>0.9018230036324885</v>
       </c>
       <c r="N14">
-        <v>1.021514822714324</v>
+        <v>0.9765353986056092</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047096281783841</v>
+        <v>0.8857749531946831</v>
       </c>
       <c r="D15">
-        <v>1.053600105295297</v>
+        <v>0.9038603547246437</v>
       </c>
       <c r="E15">
-        <v>1.053280214911967</v>
+        <v>0.9068498470855855</v>
       </c>
       <c r="F15">
-        <v>1.060653432104353</v>
+        <v>0.887748697961906</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026564009392258</v>
+        <v>1.009085736256227</v>
       </c>
       <c r="J15">
-        <v>1.053549480143407</v>
+        <v>0.9206279379543363</v>
       </c>
       <c r="K15">
-        <v>1.05708768865025</v>
+        <v>0.9207719757538751</v>
       </c>
       <c r="L15">
-        <v>1.056768935837562</v>
+        <v>0.9236884972946495</v>
       </c>
       <c r="M15">
-        <v>1.064116125072206</v>
+        <v>0.9050650480273812</v>
       </c>
       <c r="N15">
-        <v>1.021576966568677</v>
+        <v>0.977387850883418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048400821075373</v>
+        <v>0.9014604686782254</v>
       </c>
       <c r="D16">
-        <v>1.054818756911619</v>
+        <v>0.9187550607578678</v>
       </c>
       <c r="E16">
-        <v>1.054471626942195</v>
+        <v>0.9214147530169872</v>
       </c>
       <c r="F16">
-        <v>1.061998065496052</v>
+        <v>0.9057241654505215</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026750805984388</v>
+        <v>1.014530336533145</v>
       </c>
       <c r="J16">
-        <v>1.05463337095659</v>
+        <v>0.9341220960691523</v>
       </c>
       <c r="K16">
-        <v>1.058190517060474</v>
+        <v>0.934722842393231</v>
       </c>
       <c r="L16">
-        <v>1.057844576581393</v>
+        <v>0.9373229188142786</v>
       </c>
       <c r="M16">
-        <v>1.065345416312222</v>
+        <v>0.9219908056710875</v>
       </c>
       <c r="N16">
-        <v>1.021936959770857</v>
+        <v>0.9818621463133355</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.049214682077722</v>
+        <v>0.9101938707633221</v>
       </c>
       <c r="D17">
-        <v>1.055578587469832</v>
+        <v>0.9270257441413096</v>
       </c>
       <c r="E17">
-        <v>1.055214462761095</v>
+        <v>0.9295023093400763</v>
       </c>
       <c r="F17">
-        <v>1.062835193817646</v>
+        <v>0.9156454610982965</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026864583282488</v>
+        <v>1.017497623419337</v>
       </c>
       <c r="J17">
-        <v>1.055308836405776</v>
+        <v>0.9416014584807193</v>
       </c>
       <c r="K17">
-        <v>1.058877586505081</v>
+        <v>0.942446874338006</v>
       </c>
       <c r="L17">
-        <v>1.058514680055693</v>
+        <v>0.9448706633687691</v>
       </c>
       <c r="M17">
-        <v>1.066110105247074</v>
+        <v>0.9313139914789806</v>
       </c>
       <c r="N17">
-        <v>1.022161283503912</v>
+        <v>0.9843435071136764</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049687814024209</v>
+        <v>0.9149842136268419</v>
       </c>
       <c r="D18">
-        <v>1.056020147691605</v>
+        <v>0.9315559434931084</v>
       </c>
       <c r="E18">
-        <v>1.05564614289431</v>
+        <v>0.9339322222136491</v>
       </c>
       <c r="F18">
-        <v>1.063321222882128</v>
+        <v>0.9210621216277701</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026929729906088</v>
+        <v>1.019105440259914</v>
       </c>
       <c r="J18">
-        <v>1.055701246392921</v>
+        <v>0.9456940203570195</v>
       </c>
       <c r="K18">
-        <v>1.059276666482247</v>
+        <v>0.946670847290857</v>
       </c>
       <c r="L18">
-        <v>1.058903895386263</v>
+        <v>0.948997921196175</v>
       </c>
       <c r="M18">
-        <v>1.066553848671739</v>
+        <v>0.936398343112924</v>
       </c>
       <c r="N18">
-        <v>1.022291596950322</v>
+        <v>0.9857016556174488</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049848873886686</v>
+        <v>0.9165724381446707</v>
       </c>
       <c r="D19">
-        <v>1.056170432732814</v>
+        <v>0.9330569583637478</v>
       </c>
       <c r="E19">
-        <v>1.055793064575306</v>
+        <v>0.9354000130036055</v>
       </c>
       <c r="F19">
-        <v>1.063486566336034</v>
+        <v>0.9228541301503334</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026951737207495</v>
+        <v>1.01963537482033</v>
       </c>
       <c r="J19">
-        <v>1.055834782249306</v>
+        <v>0.9470493672674364</v>
       </c>
       <c r="K19">
-        <v>1.059412460003218</v>
+        <v>0.9480693348368591</v>
       </c>
       <c r="L19">
-        <v>1.059036330588156</v>
+        <v>0.9503643406438136</v>
       </c>
       <c r="M19">
-        <v>1.066704768115439</v>
+        <v>0.9380795018061056</v>
       </c>
       <c r="N19">
-        <v>1.022335941026589</v>
+        <v>0.9861514973893765</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.049127526336431</v>
+        <v>0.9092899043422574</v>
       </c>
       <c r="D20">
-        <v>1.055497234531145</v>
+        <v>0.9261703733744975</v>
       </c>
       <c r="E20">
-        <v>1.055134929808812</v>
+        <v>0.9286658761182819</v>
       </c>
       <c r="F20">
-        <v>1.062745611552766</v>
+        <v>0.9146213202702254</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026852502141947</v>
+        <v>1.017192638538081</v>
       </c>
       <c r="J20">
-        <v>1.05523652895772</v>
+        <v>0.9408283849245082</v>
       </c>
       <c r="K20">
-        <v>1.058804044254156</v>
+        <v>0.9416487831802652</v>
       </c>
       <c r="L20">
-        <v>1.058442954843661</v>
+        <v>0.944090821521707</v>
       </c>
       <c r="M20">
-        <v>1.066028298427547</v>
+        <v>0.9303522197718481</v>
       </c>
       <c r="N20">
-        <v>1.022137270733933</v>
+        <v>0.9840869874672039</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.046763641938444</v>
+        <v>0.8813357448604577</v>
       </c>
       <c r="D21">
-        <v>1.053289226941841</v>
+        <v>0.899634795049015</v>
       </c>
       <c r="E21">
-        <v>1.052976282054661</v>
+        <v>0.9027178201821082</v>
       </c>
       <c r="F21">
-        <v>1.06031002744381</v>
+        <v>0.8826228858443227</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026515525619684</v>
+        <v>1.007517961901292</v>
       </c>
       <c r="J21">
-        <v>1.053272873393122</v>
+        <v>0.9167940228430291</v>
       </c>
       <c r="K21">
-        <v>1.056806187808599</v>
+        <v>0.9168045580178477</v>
       </c>
       <c r="L21">
-        <v>1.0564943661119</v>
+        <v>0.9198105825516093</v>
       </c>
       <c r="M21">
-        <v>1.063801982139431</v>
+        <v>0.9002306704057423</v>
       </c>
       <c r="N21">
-        <v>1.021485091188423</v>
+        <v>0.9761172645957955</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045262679392997</v>
+        <v>0.8576623878981997</v>
       </c>
       <c r="D22">
-        <v>1.051885774325423</v>
+        <v>0.8770135236460441</v>
       </c>
       <c r="E22">
-        <v>1.051604168451994</v>
+        <v>0.8805965696499267</v>
       </c>
       <c r="F22">
-        <v>1.058757818298359</v>
+        <v>0.8549703214007357</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026292555932877</v>
+        <v>0.9989499370405269</v>
       </c>
       <c r="J22">
-        <v>1.052023616415002</v>
+        <v>0.8962267227172206</v>
       </c>
       <c r="K22">
-        <v>1.055534525300513</v>
+        <v>0.8954902948203213</v>
       </c>
       <c r="L22">
-        <v>1.055253971979251</v>
+        <v>0.8989729993294441</v>
       </c>
       <c r="M22">
-        <v>1.062381075742562</v>
+        <v>0.8740899140576202</v>
       </c>
       <c r="N22">
-        <v>1.021070119871744</v>
+        <v>0.9693063681217436</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046059784066538</v>
+        <v>0.8711253708472702</v>
       </c>
       <c r="D23">
-        <v>1.052631233451916</v>
+        <v>0.8898971388748933</v>
       </c>
       <c r="E23">
-        <v>1.052332984795865</v>
+        <v>0.8931955882446204</v>
       </c>
       <c r="F23">
-        <v>1.059582678842084</v>
+        <v>0.8707643700241491</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026411814944775</v>
+        <v>1.003866199524407</v>
       </c>
       <c r="J23">
-        <v>1.052687278536646</v>
+        <v>0.907949367308831</v>
       </c>
       <c r="K23">
-        <v>1.05621015129679</v>
+        <v>0.9076452430435139</v>
       </c>
       <c r="L23">
-        <v>1.055912993877556</v>
+        <v>0.910857005445628</v>
       </c>
       <c r="M23">
-        <v>1.063136354799227</v>
+        <v>0.8890330149026482</v>
       </c>
       <c r="N23">
-        <v>1.021290577270125</v>
+        <v>0.9731872259014723</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.049166913141186</v>
+        <v>0.9096992850983282</v>
       </c>
       <c r="D24">
-        <v>1.055533999474427</v>
+        <v>0.9265577662248011</v>
       </c>
       <c r="E24">
-        <v>1.055170872277755</v>
+        <v>0.9290446921885565</v>
       </c>
       <c r="F24">
-        <v>1.062786096881938</v>
+        <v>0.9150852032143599</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026857964851273</v>
+        <v>1.017330819401523</v>
       </c>
       <c r="J24">
-        <v>1.055269206452606</v>
+        <v>0.9411785189524273</v>
       </c>
       <c r="K24">
-        <v>1.058837280007313</v>
+        <v>0.9420102556635847</v>
       </c>
       <c r="L24">
-        <v>1.05847536945846</v>
+        <v>0.9444440294699453</v>
       </c>
       <c r="M24">
-        <v>1.066065270469714</v>
+        <v>0.9307878707915123</v>
       </c>
       <c r="N24">
-        <v>1.022148122710162</v>
+        <v>0.9842031669757199</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052710820976279</v>
+        <v>0.9419667233703144</v>
       </c>
       <c r="D25">
-        <v>1.058838524072846</v>
+        <v>0.9569952864485287</v>
       </c>
       <c r="E25">
-        <v>1.05840138514778</v>
+        <v>0.9588089110610617</v>
       </c>
       <c r="F25">
-        <v>1.066415329671975</v>
+        <v>0.9512529795743166</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027327981266478</v>
+        <v>1.02788698621669</v>
       </c>
       <c r="J25">
-        <v>1.058203695290075</v>
+        <v>0.968618432949369</v>
       </c>
       <c r="K25">
-        <v>1.061820367550788</v>
+        <v>0.9703000182795964</v>
       </c>
       <c r="L25">
-        <v>1.061384538619968</v>
+        <v>0.9720821958376686</v>
       </c>
       <c r="M25">
-        <v>1.069374653135731</v>
+        <v>0.964658304773829</v>
       </c>
       <c r="N25">
-        <v>1.023122497920252</v>
+        <v>0.9933139254294741</v>
       </c>
     </row>
   </sheetData>
